--- a/mySite/static/data_files/myData.xlsx
+++ b/mySite/static/data_files/myData.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>20-08-2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+  <si>
+    <t>27-08-2020</t>
   </si>
   <si>
     <t>Id</t>
@@ -58,19 +58,61 @@
     <t>Thodupuzha</t>
   </si>
   <si>
-    <t>qaz</t>
-  </si>
-  <si>
-    <t>qaz@gmail.com</t>
-  </si>
-  <si>
-    <t>1231231231</t>
+    <t>Jose Francis</t>
+  </si>
+  <si>
+    <t>josefrancis.k@gmail.com</t>
+  </si>
+  <si>
+    <t>1212121212</t>
   </si>
   <si>
     <t>Ernakulam</t>
   </si>
   <si>
-    <t>Aluva</t>
+    <t>Thrikkakara</t>
+  </si>
+  <si>
+    <t>Miini Paul</t>
+  </si>
+  <si>
+    <t>minipaul.k@gmail.com</t>
+  </si>
+  <si>
+    <t>12345666666</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>nkpparty@gmail.com</t>
+  </si>
+  <si>
+    <t>7558844814</t>
+  </si>
+  <si>
+    <t>GIRISH KUMAR  K S</t>
+  </si>
+  <si>
+    <t>gkumarks@gmail.com</t>
+  </si>
+  <si>
+    <t>+971508150595</t>
+  </si>
+  <si>
+    <t>George Augustine</t>
+  </si>
+  <si>
+    <t>georgeaugustinevaniapura@gmail.com</t>
+  </si>
+  <si>
+    <t>9388882911</t>
+  </si>
+  <si>
+    <t>Corporation</t>
+  </si>
+  <si>
+    <t>Cochin</t>
   </si>
 </sst>
 </file>
@@ -402,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,7 +503,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -480,6 +522,98 @@
       </c>
       <c r="G4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/mySite/static/data_files/myData.xlsx
+++ b/mySite/static/data_files/myData.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
-  <si>
-    <t>27-08-2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+  <si>
+    <t>31-08-2020</t>
   </si>
   <si>
     <t>Id</t>
@@ -113,6 +113,39 @@
   </si>
   <si>
     <t>Cochin</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>jeffreyjose.k@gmail.com</t>
+  </si>
+  <si>
+    <t>9567761105</t>
+  </si>
+  <si>
+    <t>Sugathan</t>
+  </si>
+  <si>
+    <t>sugathan@nkpparty.org</t>
+  </si>
+  <si>
+    <t>9061707722</t>
+  </si>
+  <si>
+    <t>Thrissur</t>
+  </si>
+  <si>
+    <t>Panchayath</t>
+  </si>
+  <si>
+    <t>Nattika</t>
+  </si>
+  <si>
+    <t>Shobi</t>
+  </si>
+  <si>
+    <t>shobi@nkpparty.org</t>
   </si>
 </sst>
 </file>
@@ -444,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,6 +649,75 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mySite/static/data_files/myData.xlsx
+++ b/mySite/static/data_files/myData.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
-  <si>
-    <t>31-08-2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+  <si>
+    <t>28-11-2020</t>
   </si>
   <si>
     <t>Id</t>
@@ -146,6 +146,153 @@
   </si>
   <si>
     <t>shobi@nkpparty.org</t>
+  </si>
+  <si>
+    <t>Paily</t>
+  </si>
+  <si>
+    <t>paily@nkpparty.org</t>
+  </si>
+  <si>
+    <t>Chelakkara</t>
+  </si>
+  <si>
+    <t>Jayachandran</t>
+  </si>
+  <si>
+    <t>jcoosixoo@gmail.com</t>
+  </si>
+  <si>
+    <t>8898770688</t>
+  </si>
+  <si>
+    <t>Kozhikode</t>
+  </si>
+  <si>
+    <t>Arikkulam</t>
+  </si>
+  <si>
+    <t>Mohammed kasim kp</t>
+  </si>
+  <si>
+    <t>muhammedkasimkp6666@gmail.com</t>
+  </si>
+  <si>
+    <t>8075232967</t>
+  </si>
+  <si>
+    <t>Malappuram</t>
+  </si>
+  <si>
+    <t>Mangalam</t>
+  </si>
+  <si>
+    <t>Ishak</t>
+  </si>
+  <si>
+    <t>ishakh3526@gmail.com</t>
+  </si>
+  <si>
+    <t>9947733526</t>
+  </si>
+  <si>
+    <t>Kabeer. M</t>
+  </si>
+  <si>
+    <t>Kabeermkty@gmail.com</t>
+  </si>
+  <si>
+    <t>+919048881979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJMAL </t>
+  </si>
+  <si>
+    <t>advenchr@gmail.com</t>
+  </si>
+  <si>
+    <t>9895025165</t>
+  </si>
+  <si>
+    <t>Wayanad</t>
+  </si>
+  <si>
+    <t>Meppadi</t>
+  </si>
+  <si>
+    <t>GIRISH KUMAR K S</t>
+  </si>
+  <si>
+    <t>girishks@hotmail.com</t>
+  </si>
+  <si>
+    <t>Nirmala</t>
+  </si>
+  <si>
+    <t>nirmalajimmi1234@gmail.com</t>
+  </si>
+  <si>
+    <t>7661934958</t>
+  </si>
+  <si>
+    <t>Kollam</t>
+  </si>
+  <si>
+    <t>Perayam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVASIACHAN </t>
+  </si>
+  <si>
+    <t>dev241997@gmail.com</t>
+  </si>
+  <si>
+    <t>9633560770</t>
+  </si>
+  <si>
+    <t>Kottayam</t>
+  </si>
+  <si>
+    <t>Kadanad</t>
+  </si>
+  <si>
+    <t>KRISHNAKUMAR K C</t>
+  </si>
+  <si>
+    <t>krishnakumarkc27@gmail.com</t>
+  </si>
+  <si>
+    <t>7012674894</t>
+  </si>
+  <si>
+    <t>Aluva</t>
+  </si>
+  <si>
+    <t>ANOOP DAS</t>
+  </si>
+  <si>
+    <t>ad179953@gmail.com</t>
+  </si>
+  <si>
+    <t>6282442938</t>
+  </si>
+  <si>
+    <t>Nandhu reghu</t>
+  </si>
+  <si>
+    <t>nandhureghu123@gmail.com</t>
+  </si>
+  <si>
+    <t>9995862910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajith Mohanan </t>
+  </si>
+  <si>
+    <t>Ajithmohanan01993@gmail.com</t>
+  </si>
+  <si>
+    <t>9746115112</t>
   </si>
 </sst>
 </file>
@@ -477,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,6 +865,305 @@
         <v>41</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
